--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H2">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I2">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J2">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>12.54444211315533</v>
+        <v>0.03827661557755555</v>
       </c>
       <c r="R2">
-        <v>112.899979018398</v>
+        <v>0.344489540198</v>
       </c>
       <c r="S2">
-        <v>0.1362798517204681</v>
+        <v>0.01135420840593086</v>
       </c>
       <c r="T2">
-        <v>0.1362798517204681</v>
+        <v>0.01135420840593086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H3">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I3">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J3">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>71.23822899038878</v>
+        <v>0.3632392276674444</v>
       </c>
       <c r="R3">
-        <v>641.1440609134989</v>
+        <v>3.269153049007</v>
       </c>
       <c r="S3">
-        <v>0.7739152682970112</v>
+        <v>0.107749701218723</v>
       </c>
       <c r="T3">
-        <v>0.7739152682970112</v>
+        <v>0.107749701218723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H4">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I4">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J4">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>6.421781626021666</v>
+        <v>0.075410917398</v>
       </c>
       <c r="R4">
-        <v>57.796034634195</v>
+        <v>0.678698256582</v>
       </c>
       <c r="S4">
-        <v>0.06976471650801284</v>
+        <v>0.02236956583803615</v>
       </c>
       <c r="T4">
-        <v>0.06976471650801283</v>
+        <v>0.02236956583803615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.252242</v>
       </c>
       <c r="I5">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J5">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>0.1175476307426667</v>
+        <v>0.07034227810977779</v>
       </c>
       <c r="R5">
-        <v>1.057928676684</v>
+        <v>0.633080502988</v>
       </c>
       <c r="S5">
-        <v>0.001277009654411292</v>
+        <v>0.02086602677261496</v>
       </c>
       <c r="T5">
-        <v>0.001277009654411292</v>
+        <v>0.02086602677261496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.252242</v>
       </c>
       <c r="I6">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J6">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
-        <v>0.6675374608602224</v>
+        <v>0.6675374608602223</v>
       </c>
       <c r="R6">
-        <v>6.007837147742001</v>
+        <v>6.007837147742</v>
       </c>
       <c r="S6">
-        <v>0.007251969068316465</v>
+        <v>0.198015402746768</v>
       </c>
       <c r="T6">
-        <v>0.007251969068316462</v>
+        <v>0.198015402746768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.252242</v>
       </c>
       <c r="I7">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J7">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>0.06017527192333334</v>
+        <v>0.138585286188</v>
       </c>
       <c r="R7">
-        <v>0.54157744731</v>
+        <v>1.247267575692</v>
       </c>
       <c r="S7">
-        <v>0.0006537299196710137</v>
+        <v>0.04110933523330625</v>
       </c>
       <c r="T7">
-        <v>0.0006537299196710135</v>
+        <v>0.04110933523330625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H8">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>0.1389860161213334</v>
+        <v>0.1619379400397778</v>
       </c>
       <c r="R8">
-        <v>1.250874145092</v>
+        <v>1.457441460358</v>
       </c>
       <c r="S8">
-        <v>0.001509911201899566</v>
+        <v>0.04803656468303133</v>
       </c>
       <c r="T8">
-        <v>0.001509911201899566</v>
+        <v>0.04803656468303133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H9">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>0.7892832183051112</v>
+        <v>1.536766283605222</v>
       </c>
       <c r="R9">
-        <v>7.103548964746</v>
+        <v>13.830896552447</v>
       </c>
       <c r="S9">
-        <v>0.008574586178150791</v>
+        <v>0.4558596519566127</v>
       </c>
       <c r="T9">
-        <v>0.00857458617815079</v>
+        <v>0.4558596519566128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H10">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>0.07115006283666668</v>
+        <v>0.319043061558</v>
       </c>
       <c r="R10">
-        <v>0.64035056553</v>
+        <v>2.871387554022</v>
       </c>
       <c r="S10">
-        <v>0.0007729574520587418</v>
+        <v>0.09463954314497679</v>
       </c>
       <c r="T10">
-        <v>0.0007729574520587416</v>
+        <v>0.0946395431449768</v>
       </c>
     </row>
   </sheetData>
